--- a/projet_semestre2_IFIM_timeseries/table_dataset_gouvernment.xlsx
+++ b/projet_semestre2_IFIM_timeseries/table_dataset_gouvernment.xlsx
@@ -887,14 +887,16 @@
   <dimension ref="A1:KT46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="14" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="14" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="37" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="38" max="114" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
@@ -42786,84 +42788,84 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BW1:BZ1"/>
+    <mergeCell ref="CA1:CD1"/>
+    <mergeCell ref="CE1:CH1"/>
+    <mergeCell ref="CI1:CL1"/>
+    <mergeCell ref="CM1:CP1"/>
+    <mergeCell ref="CQ1:CT1"/>
+    <mergeCell ref="CU1:CX1"/>
+    <mergeCell ref="CY1:DB1"/>
+    <mergeCell ref="DC1:DF1"/>
+    <mergeCell ref="DG1:DJ1"/>
+    <mergeCell ref="DK1:DN1"/>
+    <mergeCell ref="DO1:DR1"/>
+    <mergeCell ref="DS1:DV1"/>
+    <mergeCell ref="DW1:DZ1"/>
+    <mergeCell ref="EA1:ED1"/>
+    <mergeCell ref="EE1:EH1"/>
+    <mergeCell ref="EI1:EL1"/>
+    <mergeCell ref="EM1:EP1"/>
+    <mergeCell ref="EQ1:ET1"/>
+    <mergeCell ref="EU1:EX1"/>
+    <mergeCell ref="EY1:FB1"/>
+    <mergeCell ref="FC1:FF1"/>
+    <mergeCell ref="FG1:FJ1"/>
+    <mergeCell ref="FK1:FN1"/>
+    <mergeCell ref="FO1:FR1"/>
+    <mergeCell ref="FS1:FV1"/>
+    <mergeCell ref="FW1:FZ1"/>
+    <mergeCell ref="GA1:GD1"/>
+    <mergeCell ref="GE1:GH1"/>
+    <mergeCell ref="GI1:GL1"/>
+    <mergeCell ref="GM1:GP1"/>
+    <mergeCell ref="GQ1:GT1"/>
+    <mergeCell ref="GU1:GX1"/>
+    <mergeCell ref="GY1:HB1"/>
+    <mergeCell ref="HC1:HF1"/>
+    <mergeCell ref="HG1:HJ1"/>
+    <mergeCell ref="HK1:HN1"/>
+    <mergeCell ref="HO1:HR1"/>
+    <mergeCell ref="HS1:HV1"/>
+    <mergeCell ref="HW1:HZ1"/>
+    <mergeCell ref="IA1:ID1"/>
+    <mergeCell ref="IE1:IH1"/>
+    <mergeCell ref="II1:IL1"/>
+    <mergeCell ref="IM1:IP1"/>
+    <mergeCell ref="IQ1:IT1"/>
+    <mergeCell ref="IU1:IX1"/>
+    <mergeCell ref="IY1:JB1"/>
+    <mergeCell ref="JC1:JF1"/>
+    <mergeCell ref="JG1:JJ1"/>
+    <mergeCell ref="JK1:JN1"/>
+    <mergeCell ref="JO1:JR1"/>
+    <mergeCell ref="JS1:JV1"/>
     <mergeCell ref="KQ1:KT1"/>
     <mergeCell ref="JW1:JZ1"/>
     <mergeCell ref="KA1:KD1"/>
     <mergeCell ref="KE1:KH1"/>
     <mergeCell ref="KI1:KL1"/>
     <mergeCell ref="KM1:KP1"/>
-    <mergeCell ref="JC1:JF1"/>
-    <mergeCell ref="JG1:JJ1"/>
-    <mergeCell ref="JK1:JN1"/>
-    <mergeCell ref="JO1:JR1"/>
-    <mergeCell ref="JS1:JV1"/>
-    <mergeCell ref="II1:IL1"/>
-    <mergeCell ref="IM1:IP1"/>
-    <mergeCell ref="IQ1:IT1"/>
-    <mergeCell ref="IU1:IX1"/>
-    <mergeCell ref="IY1:JB1"/>
-    <mergeCell ref="HO1:HR1"/>
-    <mergeCell ref="HS1:HV1"/>
-    <mergeCell ref="HW1:HZ1"/>
-    <mergeCell ref="IA1:ID1"/>
-    <mergeCell ref="IE1:IH1"/>
-    <mergeCell ref="GU1:GX1"/>
-    <mergeCell ref="GY1:HB1"/>
-    <mergeCell ref="HC1:HF1"/>
-    <mergeCell ref="HG1:HJ1"/>
-    <mergeCell ref="HK1:HN1"/>
-    <mergeCell ref="GA1:GD1"/>
-    <mergeCell ref="GE1:GH1"/>
-    <mergeCell ref="GI1:GL1"/>
-    <mergeCell ref="GM1:GP1"/>
-    <mergeCell ref="GQ1:GT1"/>
-    <mergeCell ref="FG1:FJ1"/>
-    <mergeCell ref="FK1:FN1"/>
-    <mergeCell ref="FO1:FR1"/>
-    <mergeCell ref="FS1:FV1"/>
-    <mergeCell ref="FW1:FZ1"/>
-    <mergeCell ref="EM1:EP1"/>
-    <mergeCell ref="EQ1:ET1"/>
-    <mergeCell ref="EU1:EX1"/>
-    <mergeCell ref="EY1:FB1"/>
-    <mergeCell ref="FC1:FF1"/>
-    <mergeCell ref="DS1:DV1"/>
-    <mergeCell ref="DW1:DZ1"/>
-    <mergeCell ref="EA1:ED1"/>
-    <mergeCell ref="EE1:EH1"/>
-    <mergeCell ref="EI1:EL1"/>
-    <mergeCell ref="CY1:DB1"/>
-    <mergeCell ref="DC1:DF1"/>
-    <mergeCell ref="DG1:DJ1"/>
-    <mergeCell ref="DK1:DN1"/>
-    <mergeCell ref="DO1:DR1"/>
-    <mergeCell ref="CE1:CH1"/>
-    <mergeCell ref="CI1:CL1"/>
-    <mergeCell ref="CM1:CP1"/>
-    <mergeCell ref="CQ1:CT1"/>
-    <mergeCell ref="CU1:CX1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BW1:BZ1"/>
-    <mergeCell ref="CA1:CD1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
